--- a/【LE】HP_ToDo管理表.xlsx
+++ b/【LE】HP_ToDo管理表.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liveest_ts01\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24825" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="24840" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo管理表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDo管理表!$B$2:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDo管理表!$B$2:$H$34</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1"/>
@@ -550,15 +545,60 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｓ</t>
+    <t>余白を広げる</t>
+    <rPh sb="0" eb="2">
+      <t>ヨハク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンのサイズを調整する</t>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>埋め込み画像余白調整</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨハク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール時スクリクプト要必要</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヨウヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,6 +652,12 @@
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -711,7 +757,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -741,8 +787,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -774,6 +826,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,20 +856,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -820,6 +878,9 @@
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -835,8 +896,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1179,30 +1250,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="1" spans="2:10" ht="24">
       <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="19" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1228,15 +1296,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" ht="19" thickTop="1">
       <c r="B3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1246,18 +1314,18 @@
         <v>40</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="17"/>
+      <c r="H3" s="11"/>
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10">
       <c r="B4" s="5">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1267,18 +1335,18 @@
         <v>40</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="12"/>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10">
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B32" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B34" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1288,18 +1356,17 @@
         <v>40</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="18"/>
+      <c r="H5" s="12"/>
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10">
       <c r="B6" s="5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1309,15 +1376,14 @@
         <v>41</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="5">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1326,37 +1392,41 @@
       <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>53</v>
+      <c r="C8" s="18"/>
+      <c r="D8" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19" t="s">
-        <v>52</v>
+      <c r="C9" s="18"/>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>32</v>
@@ -1364,73 +1434,83 @@
       <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" ht="36">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="19" t="s">
-        <v>42</v>
+      <c r="C10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" ht="54">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D13" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>30</v>
@@ -1439,56 +1519,54 @@
         <v>41</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>14</v>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="18" t="s">
-        <v>15</v>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>19</v>
+      <c r="C16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>44</v>
@@ -1497,98 +1575,96 @@
         <v>41</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>22</v>
+      <c r="C17" s="17"/>
+      <c r="D17" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="2:8" ht="54">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>46</v>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19" t="s">
-        <v>47</v>
+      <c r="C19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" ht="36">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="18" t="s">
-        <v>25</v>
+      <c r="C21" s="17"/>
+      <c r="D21" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>45</v>
@@ -1597,58 +1673,58 @@
         <v>40</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="18" t="s">
-        <v>26</v>
+      <c r="C22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>50</v>
+      <c r="C23" s="20"/>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="4"/>
+      <c r="H23" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="19" t="s">
-        <v>28</v>
+      <c r="C24" s="17"/>
+      <c r="D24" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>44</v>
@@ -1656,19 +1732,19 @@
       <c r="F24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G24" s="4"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="18.75" customHeight="1">
       <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="20" t="s">
-        <v>29</v>
+      <c r="C25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>44</v>
@@ -1679,119 +1755,164 @@
       <c r="G25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="16"/>
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C27" s="16"/>
+      <c r="D27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="8"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="5"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H32"/>
+  <autoFilter ref="B2:H34"/>
   <mergeCells count="7">
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F3:F32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="重">
+  <conditionalFormatting sqref="F3:F5 F8:F34">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="重">
       <formula>NOT(ISERROR(SEARCH("重",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="重">
+      <formula>NOT(ISERROR(SEARCH("重",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F34">
       <formula1>"重,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G34">
       <formula1>"保留中,着手中,完了"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/【LE】HP_ToDo管理表.xlsx
+++ b/【LE】HP_ToDo管理表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="24840" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="2080" yWindow="740" windowWidth="24920" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo管理表" sheetId="1" r:id="rId1"/>
@@ -838,6 +838,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -855,12 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1252,7 +1252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -1301,7 +1303,7 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1324,7 +1326,7 @@
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1347,7 @@
         <f t="shared" ref="B5:B34" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1367,7 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1384,7 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1404,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="G8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1424,7 +1426,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
@@ -1444,7 +1446,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1464,7 +1466,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="13" t="s">
         <v>52</v>
       </c>
@@ -1484,7 +1486,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="13" t="s">
         <v>42</v>
       </c>
@@ -1497,7 +1499,7 @@
       <c r="G12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1506,7 +1508,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -1526,7 +1528,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1546,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="12" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1564,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -1582,7 +1584,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
@@ -1640,7 +1642,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -1662,7 +1664,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="13" t="s">
         <v>47</v>
       </c>
@@ -1682,7 +1684,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -1702,7 +1704,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="12" t="s">
         <v>25</v>
       </c>
@@ -1722,7 +1724,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1740,7 +1742,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -1762,7 +1764,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +1784,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="14" t="s">
         <v>29</v>
       </c>

--- a/【LE】HP_ToDo管理表.xlsx
+++ b/【LE】HP_ToDo管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="740" windowWidth="24920" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24820" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo管理表" sheetId="1" r:id="rId1"/>
@@ -565,30 +565,33 @@
     <t>完了</t>
   </si>
   <si>
-    <t>埋め込み画像余白調整</t>
-    <rPh sb="0" eb="1">
+    <t>0629:埋め込み画像余白調整／0630:修正完了</t>
+    <rPh sb="5" eb="6">
       <t>ウ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="7" eb="8">
       <t>コ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="9" eb="11">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="11" eb="13">
       <t>ヨハク</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="13" eb="15">
       <t>チョウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクロール時スクリクプト要必要</t>
-    <rPh sb="5" eb="6">
+    <rPh sb="21" eb="25">
+      <t>シュウセイカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0629:スクロール時スクリクプト要必要</t>
+    <rPh sb="10" eb="11">
       <t>ジ</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="17" eb="20">
       <t>ヨウヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1252,9 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
